--- a/logs/Screening_Log.xlsx
+++ b/logs/Screening_Log.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="888">
   <si>
     <t>Screening_Date</t>
   </si>
@@ -1460,6 +1460,1227 @@
   </si>
   <si>
     <t>60</t>
+  </si>
+  <si>
+    <t>1/12/2013</t>
+  </si>
+  <si>
+    <t>6:25</t>
+  </si>
+  <si>
+    <t>mvl</t>
+  </si>
+  <si>
+    <t>15533441</t>
+  </si>
+  <si>
+    <t>11/28/2015</t>
+  </si>
+  <si>
+    <t>7:37</t>
+  </si>
+  <si>
+    <t>xkx</t>
+  </si>
+  <si>
+    <t>14978658</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>11/18/2015</t>
+  </si>
+  <si>
+    <t>14:36</t>
+  </si>
+  <si>
+    <t>hbp</t>
+  </si>
+  <si>
+    <t>11196983</t>
+  </si>
+  <si>
+    <t>6/1/2014</t>
+  </si>
+  <si>
+    <t>19:34</t>
+  </si>
+  <si>
+    <t>jtc</t>
+  </si>
+  <si>
+    <t>19342273</t>
+  </si>
+  <si>
+    <t>5/2/2014</t>
+  </si>
+  <si>
+    <t>beh</t>
+  </si>
+  <si>
+    <t>19293046</t>
+  </si>
+  <si>
+    <t>6/5/2015</t>
+  </si>
+  <si>
+    <t>23:37</t>
+  </si>
+  <si>
+    <t>kfa</t>
+  </si>
+  <si>
+    <t>11825545</t>
+  </si>
+  <si>
+    <t>8/10/2016</t>
+  </si>
+  <si>
+    <t>20:55</t>
+  </si>
+  <si>
+    <t>hiu</t>
+  </si>
+  <si>
+    <t>13720389</t>
+  </si>
+  <si>
+    <t>9/14/2014</t>
+  </si>
+  <si>
+    <t>15:13</t>
+  </si>
+  <si>
+    <t>plm</t>
+  </si>
+  <si>
+    <t>15671503</t>
+  </si>
+  <si>
+    <t>2/6/2013</t>
+  </si>
+  <si>
+    <t>3:30</t>
+  </si>
+  <si>
+    <t>stl</t>
+  </si>
+  <si>
+    <t>12969684</t>
+  </si>
+  <si>
+    <t>7/23/2015</t>
+  </si>
+  <si>
+    <t>0:15</t>
+  </si>
+  <si>
+    <t>fvi</t>
+  </si>
+  <si>
+    <t>17177860</t>
+  </si>
+  <si>
+    <t>2/1/2013</t>
+  </si>
+  <si>
+    <t>6:35</t>
+  </si>
+  <si>
+    <t>xzl</t>
+  </si>
+  <si>
+    <t>18811213</t>
+  </si>
+  <si>
+    <t>1/28/2012</t>
+  </si>
+  <si>
+    <t>1:43</t>
+  </si>
+  <si>
+    <t>iwf</t>
+  </si>
+  <si>
+    <t>12950133</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>2/3/2013</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>uyl</t>
+  </si>
+  <si>
+    <t>10389197</t>
+  </si>
+  <si>
+    <t>12/17/2014</t>
+  </si>
+  <si>
+    <t>2:57</t>
+  </si>
+  <si>
+    <t>rln</t>
+  </si>
+  <si>
+    <t>13467985</t>
+  </si>
+  <si>
+    <t>4/3/2014</t>
+  </si>
+  <si>
+    <t>dmk</t>
+  </si>
+  <si>
+    <t>17450056</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>6/16/2015</t>
+  </si>
+  <si>
+    <t>10:32</t>
+  </si>
+  <si>
+    <t>xig</t>
+  </si>
+  <si>
+    <t>11730738</t>
+  </si>
+  <si>
+    <t>6/3/2016</t>
+  </si>
+  <si>
+    <t>17:28</t>
+  </si>
+  <si>
+    <t>glh</t>
+  </si>
+  <si>
+    <t>14595532</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>3/3/2015</t>
+  </si>
+  <si>
+    <t>15:1</t>
+  </si>
+  <si>
+    <t>yev</t>
+  </si>
+  <si>
+    <t>17276484</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>8/1/2016</t>
+  </si>
+  <si>
+    <t>5:25</t>
+  </si>
+  <si>
+    <t>lcb</t>
+  </si>
+  <si>
+    <t>19122328</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>5/1/2014</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>omm</t>
+  </si>
+  <si>
+    <t>17715905</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>4/19/2016</t>
+  </si>
+  <si>
+    <t>20:45</t>
+  </si>
+  <si>
+    <t>dzy</t>
+  </si>
+  <si>
+    <t>13690852</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>7/7/2016</t>
+  </si>
+  <si>
+    <t>14:56</t>
+  </si>
+  <si>
+    <t>pbm</t>
+  </si>
+  <si>
+    <t>16019675</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>3/6/2013</t>
+  </si>
+  <si>
+    <t>9:43</t>
+  </si>
+  <si>
+    <t>nco</t>
+  </si>
+  <si>
+    <t>12275922</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>10/2/2015</t>
+  </si>
+  <si>
+    <t>5:50</t>
+  </si>
+  <si>
+    <t>syz</t>
+  </si>
+  <si>
+    <t>14783484</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>1/9/2012</t>
+  </si>
+  <si>
+    <t>4:10</t>
+  </si>
+  <si>
+    <t>lfo</t>
+  </si>
+  <si>
+    <t>13248039</t>
+  </si>
+  <si>
+    <t>7/19/2015</t>
+  </si>
+  <si>
+    <t>4:44</t>
+  </si>
+  <si>
+    <t>uhn</t>
+  </si>
+  <si>
+    <t>12356267</t>
+  </si>
+  <si>
+    <t>4:55</t>
+  </si>
+  <si>
+    <t>oqp</t>
+  </si>
+  <si>
+    <t>11618906</t>
+  </si>
+  <si>
+    <t>8/17/2014</t>
+  </si>
+  <si>
+    <t>18:27</t>
+  </si>
+  <si>
+    <t>pvh</t>
+  </si>
+  <si>
+    <t>19141349</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>1:11</t>
+  </si>
+  <si>
+    <t>iee</t>
+  </si>
+  <si>
+    <t>17907557</t>
+  </si>
+  <si>
+    <t>10/5/2013</t>
+  </si>
+  <si>
+    <t>15:43</t>
+  </si>
+  <si>
+    <t>qzp</t>
+  </si>
+  <si>
+    <t>11129873</t>
+  </si>
+  <si>
+    <t>1/9/2014</t>
+  </si>
+  <si>
+    <t>18:54</t>
+  </si>
+  <si>
+    <t>tsn</t>
+  </si>
+  <si>
+    <t>17270528</t>
+  </si>
+  <si>
+    <t>12:38</t>
+  </si>
+  <si>
+    <t>kmx</t>
+  </si>
+  <si>
+    <t>12708412</t>
+  </si>
+  <si>
+    <t>10/6/2015</t>
+  </si>
+  <si>
+    <t>19:36</t>
+  </si>
+  <si>
+    <t>aed</t>
+  </si>
+  <si>
+    <t>17422730</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>11/1/2013</t>
+  </si>
+  <si>
+    <t>22:18</t>
+  </si>
+  <si>
+    <t>zfv</t>
+  </si>
+  <si>
+    <t>15939048</t>
+  </si>
+  <si>
+    <t>1/8/2013</t>
+  </si>
+  <si>
+    <t>3:15</t>
+  </si>
+  <si>
+    <t>ytv</t>
+  </si>
+  <si>
+    <t>11588908</t>
+  </si>
+  <si>
+    <t>9/18/2016</t>
+  </si>
+  <si>
+    <t>xmo</t>
+  </si>
+  <si>
+    <t>15745762</t>
+  </si>
+  <si>
+    <t>9/11/2012</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>wsz</t>
+  </si>
+  <si>
+    <t>19032561</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>9/8/2014</t>
+  </si>
+  <si>
+    <t>13:46</t>
+  </si>
+  <si>
+    <t>dbe</t>
+  </si>
+  <si>
+    <t>14416878</t>
+  </si>
+  <si>
+    <t>3/3/2013</t>
+  </si>
+  <si>
+    <t>10:11</t>
+  </si>
+  <si>
+    <t>wfz</t>
+  </si>
+  <si>
+    <t>18694180</t>
+  </si>
+  <si>
+    <t>9/18/2014</t>
+  </si>
+  <si>
+    <t>0:13</t>
+  </si>
+  <si>
+    <t>wnr</t>
+  </si>
+  <si>
+    <t>13987157</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>10/17/2015</t>
+  </si>
+  <si>
+    <t>hxk</t>
+  </si>
+  <si>
+    <t>12413906</t>
+  </si>
+  <si>
+    <t>8/18/2016</t>
+  </si>
+  <si>
+    <t>2:53</t>
+  </si>
+  <si>
+    <t>vih</t>
+  </si>
+  <si>
+    <t>10968812</t>
+  </si>
+  <si>
+    <t>11/21/2014</t>
+  </si>
+  <si>
+    <t>heu</t>
+  </si>
+  <si>
+    <t>13057578</t>
+  </si>
+  <si>
+    <t>12/25/2016</t>
+  </si>
+  <si>
+    <t>1:38</t>
+  </si>
+  <si>
+    <t>vlh</t>
+  </si>
+  <si>
+    <t>17136464</t>
+  </si>
+  <si>
+    <t>9/13/2015</t>
+  </si>
+  <si>
+    <t>14:1</t>
+  </si>
+  <si>
+    <t>ocg</t>
+  </si>
+  <si>
+    <t>19769639</t>
+  </si>
+  <si>
+    <t>3/15/2013</t>
+  </si>
+  <si>
+    <t>23:12</t>
+  </si>
+  <si>
+    <t>ael</t>
+  </si>
+  <si>
+    <t>15673752</t>
+  </si>
+  <si>
+    <t>6/17/2014</t>
+  </si>
+  <si>
+    <t>15:52</t>
+  </si>
+  <si>
+    <t>jst</t>
+  </si>
+  <si>
+    <t>10959321</t>
+  </si>
+  <si>
+    <t>5/20/2013</t>
+  </si>
+  <si>
+    <t>3:51</t>
+  </si>
+  <si>
+    <t>neg</t>
+  </si>
+  <si>
+    <t>11589487</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>1/2/2015</t>
+  </si>
+  <si>
+    <t>17:40</t>
+  </si>
+  <si>
+    <t>hqp</t>
+  </si>
+  <si>
+    <t>17413135</t>
+  </si>
+  <si>
+    <t>1/11/2012</t>
+  </si>
+  <si>
+    <t>15:47</t>
+  </si>
+  <si>
+    <t>xnj</t>
+  </si>
+  <si>
+    <t>18126756</t>
+  </si>
+  <si>
+    <t>6/20/2015</t>
+  </si>
+  <si>
+    <t>12:46</t>
+  </si>
+  <si>
+    <t>hsr</t>
+  </si>
+  <si>
+    <t>12927689</t>
+  </si>
+  <si>
+    <t>10/7/2012</t>
+  </si>
+  <si>
+    <t>13:59</t>
+  </si>
+  <si>
+    <t>qqs</t>
+  </si>
+  <si>
+    <t>11915027</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>16:31</t>
+  </si>
+  <si>
+    <t>smb</t>
+  </si>
+  <si>
+    <t>11664100</t>
+  </si>
+  <si>
+    <t>9/4/2016</t>
+  </si>
+  <si>
+    <t>6:55</t>
+  </si>
+  <si>
+    <t>wir</t>
+  </si>
+  <si>
+    <t>18269459</t>
+  </si>
+  <si>
+    <t>7/12/2016</t>
+  </si>
+  <si>
+    <t>0:57</t>
+  </si>
+  <si>
+    <t>yek</t>
+  </si>
+  <si>
+    <t>15692147</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>8/22/2014</t>
+  </si>
+  <si>
+    <t>20:13</t>
+  </si>
+  <si>
+    <t>mij</t>
+  </si>
+  <si>
+    <t>11659633</t>
+  </si>
+  <si>
+    <t>4/28/2014</t>
+  </si>
+  <si>
+    <t>4:58</t>
+  </si>
+  <si>
+    <t>ntd</t>
+  </si>
+  <si>
+    <t>14498097</t>
+  </si>
+  <si>
+    <t>1/11/2014</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>ixp</t>
+  </si>
+  <si>
+    <t>14585106</t>
+  </si>
+  <si>
+    <t>10/7/2015</t>
+  </si>
+  <si>
+    <t>2:49</t>
+  </si>
+  <si>
+    <t>obs</t>
+  </si>
+  <si>
+    <t>17615935</t>
+  </si>
+  <si>
+    <t>7/7/2012</t>
+  </si>
+  <si>
+    <t>20:16</t>
+  </si>
+  <si>
+    <t>gox</t>
+  </si>
+  <si>
+    <t>12570656</t>
+  </si>
+  <si>
+    <t>8/4/2016</t>
+  </si>
+  <si>
+    <t>15:32</t>
+  </si>
+  <si>
+    <t>qxc</t>
+  </si>
+  <si>
+    <t>16178281</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>9/25/2016</t>
+  </si>
+  <si>
+    <t>23:55</t>
+  </si>
+  <si>
+    <t>eje</t>
+  </si>
+  <si>
+    <t>10270631</t>
+  </si>
+  <si>
+    <t>4/14/2013</t>
+  </si>
+  <si>
+    <t>11:12</t>
+  </si>
+  <si>
+    <t>kxu</t>
+  </si>
+  <si>
+    <t>12623068</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>10/3/2015</t>
+  </si>
+  <si>
+    <t>12:53</t>
+  </si>
+  <si>
+    <t>lxm</t>
+  </si>
+  <si>
+    <t>19202945</t>
+  </si>
+  <si>
+    <t>6/22/2015</t>
+  </si>
+  <si>
+    <t>ktv</t>
+  </si>
+  <si>
+    <t>15224495</t>
+  </si>
+  <si>
+    <t>5/28/2014</t>
+  </si>
+  <si>
+    <t>6:22</t>
+  </si>
+  <si>
+    <t>krl</t>
+  </si>
+  <si>
+    <t>19048957</t>
+  </si>
+  <si>
+    <t>4/18/2012</t>
+  </si>
+  <si>
+    <t>12:25</t>
+  </si>
+  <si>
+    <t>mfm</t>
+  </si>
+  <si>
+    <t>15624289</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>5/21/2012</t>
+  </si>
+  <si>
+    <t>18:14</t>
+  </si>
+  <si>
+    <t>fxs</t>
+  </si>
+  <si>
+    <t>13444121</t>
+  </si>
+  <si>
+    <t>6/26/2016</t>
+  </si>
+  <si>
+    <t>12:13</t>
+  </si>
+  <si>
+    <t>iob</t>
+  </si>
+  <si>
+    <t>11657829</t>
+  </si>
+  <si>
+    <t>4/10/2013</t>
+  </si>
+  <si>
+    <t>5:22</t>
+  </si>
+  <si>
+    <t>ifw</t>
+  </si>
+  <si>
+    <t>10368449</t>
+  </si>
+  <si>
+    <t>10/3/2014</t>
+  </si>
+  <si>
+    <t>20:8</t>
+  </si>
+  <si>
+    <t>nnc</t>
+  </si>
+  <si>
+    <t>18760402</t>
+  </si>
+  <si>
+    <t>7:29</t>
+  </si>
+  <si>
+    <t>nig</t>
+  </si>
+  <si>
+    <t>16424033</t>
+  </si>
+  <si>
+    <t>9/5/2014</t>
+  </si>
+  <si>
+    <t>20:10</t>
+  </si>
+  <si>
+    <t>gcf</t>
+  </si>
+  <si>
+    <t>18157925</t>
+  </si>
+  <si>
+    <t>9/4/2014</t>
+  </si>
+  <si>
+    <t>17:21</t>
+  </si>
+  <si>
+    <t>gpd</t>
+  </si>
+  <si>
+    <t>14825888</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>6/7/2013</t>
+  </si>
+  <si>
+    <t>17:54</t>
+  </si>
+  <si>
+    <t>ykx</t>
+  </si>
+  <si>
+    <t>14677285</t>
+  </si>
+  <si>
+    <t>12/25/2013</t>
+  </si>
+  <si>
+    <t>11:6</t>
+  </si>
+  <si>
+    <t>hse</t>
+  </si>
+  <si>
+    <t>12462429</t>
+  </si>
+  <si>
+    <t>8/27/2014</t>
+  </si>
+  <si>
+    <t>15:31</t>
+  </si>
+  <si>
+    <t>vsf</t>
+  </si>
+  <si>
+    <t>12141566</t>
+  </si>
+  <si>
+    <t>5/26/2014</t>
+  </si>
+  <si>
+    <t>zbh</t>
+  </si>
+  <si>
+    <t>13277848</t>
+  </si>
+  <si>
+    <t>14:43</t>
+  </si>
+  <si>
+    <t>ksl</t>
+  </si>
+  <si>
+    <t>18116206</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>10/16/2012</t>
+  </si>
+  <si>
+    <t>22:22</t>
+  </si>
+  <si>
+    <t>dnw</t>
+  </si>
+  <si>
+    <t>10890742</t>
+  </si>
+  <si>
+    <t>12/5/2012</t>
+  </si>
+  <si>
+    <t>9:25</t>
+  </si>
+  <si>
+    <t>wci</t>
+  </si>
+  <si>
+    <t>16080154</t>
+  </si>
+  <si>
+    <t>3/6/2016</t>
+  </si>
+  <si>
+    <t>22:30</t>
+  </si>
+  <si>
+    <t>hze</t>
+  </si>
+  <si>
+    <t>16505336</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>16:25</t>
+  </si>
+  <si>
+    <t>qzo</t>
+  </si>
+  <si>
+    <t>10290007</t>
+  </si>
+  <si>
+    <t>5/24/2015</t>
+  </si>
+  <si>
+    <t>pdq</t>
+  </si>
+  <si>
+    <t>17739781</t>
+  </si>
+  <si>
+    <t>2/11/2012</t>
+  </si>
+  <si>
+    <t>22:27</t>
+  </si>
+  <si>
+    <t>jbj</t>
+  </si>
+  <si>
+    <t>15010958</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>pfk</t>
+  </si>
+  <si>
+    <t>19526660</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>10:24</t>
+  </si>
+  <si>
+    <t>nfs</t>
+  </si>
+  <si>
+    <t>16072264</t>
+  </si>
+  <si>
+    <t>4/15/2014</t>
+  </si>
+  <si>
+    <t>4:8</t>
+  </si>
+  <si>
+    <t>xfk</t>
+  </si>
+  <si>
+    <t>19833275</t>
+  </si>
+  <si>
+    <t>11/21/2015</t>
+  </si>
+  <si>
+    <t>23:41</t>
+  </si>
+  <si>
+    <t>16476786</t>
+  </si>
+  <si>
+    <t>2/5/2015</t>
+  </si>
+  <si>
+    <t>1:21</t>
+  </si>
+  <si>
+    <t>hyx</t>
+  </si>
+  <si>
+    <t>13219176</t>
+  </si>
+  <si>
+    <t>5/18/2016</t>
+  </si>
+  <si>
+    <t>17:20</t>
+  </si>
+  <si>
+    <t>lps</t>
+  </si>
+  <si>
+    <t>16638758</t>
+  </si>
+  <si>
+    <t>10/19/2012</t>
+  </si>
+  <si>
+    <t>3:47</t>
+  </si>
+  <si>
+    <t>ukd</t>
+  </si>
+  <si>
+    <t>19872485</t>
+  </si>
+  <si>
+    <t>7/13/2015</t>
+  </si>
+  <si>
+    <t>8:36</t>
+  </si>
+  <si>
+    <t>wsf</t>
+  </si>
+  <si>
+    <t>14508858</t>
+  </si>
+  <si>
+    <t>5/3/2016</t>
+  </si>
+  <si>
+    <t>10:28</t>
+  </si>
+  <si>
+    <t>mde</t>
+  </si>
+  <si>
+    <t>12597732</t>
+  </si>
+  <si>
+    <t>10/5/2015</t>
+  </si>
+  <si>
+    <t>9:12</t>
+  </si>
+  <si>
+    <t>pcy</t>
+  </si>
+  <si>
+    <t>19936234</t>
+  </si>
+  <si>
+    <t>12/15/2014</t>
+  </si>
+  <si>
+    <t>1:16</t>
+  </si>
+  <si>
+    <t>wbm</t>
+  </si>
+  <si>
+    <t>14820253</t>
+  </si>
+  <si>
+    <t>11/22/2016</t>
+  </si>
+  <si>
+    <t>15:16</t>
+  </si>
+  <si>
+    <t>ucx</t>
+  </si>
+  <si>
+    <t>17492274</t>
+  </si>
+  <si>
+    <t>12/25/2014</t>
+  </si>
+  <si>
+    <t>npt</t>
+  </si>
+  <si>
+    <t>12816968</t>
+  </si>
+  <si>
+    <t>5/13/2016</t>
+  </si>
+  <si>
+    <t>11:5</t>
+  </si>
+  <si>
+    <t>ihn</t>
+  </si>
+  <si>
+    <t>17233215</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>pnj</t>
+  </si>
+  <si>
+    <t>12269254</t>
+  </si>
+  <si>
+    <t>94</t>
   </si>
 </sst>
 </file>
@@ -1826,7 +3047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:K201"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A16" activeCellId="0" pane="topLeft" sqref="2:16"/>
@@ -5378,6 +6599,3506 @@
       </c>
       <c r="K101" t="s">
         <v>478</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" t="s">
+        <v>481</v>
+      </c>
+      <c r="B102" t="s">
+        <v>482</v>
+      </c>
+      <c r="C102" t="s">
+        <v>483</v>
+      </c>
+      <c r="D102" t="s">
+        <v>484</v>
+      </c>
+      <c r="E102" t="s">
+        <v>480</v>
+      </c>
+      <c r="F102" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" t="s">
+        <v>25</v>
+      </c>
+      <c r="H102" t="s">
+        <v>39</v>
+      </c>
+      <c r="I102" t="s">
+        <v>19</v>
+      </c>
+      <c r="J102" t="s">
+        <v>64</v>
+      </c>
+      <c r="K102" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" t="s">
+        <v>485</v>
+      </c>
+      <c r="B103" t="s">
+        <v>486</v>
+      </c>
+      <c r="C103" t="s">
+        <v>487</v>
+      </c>
+      <c r="D103" t="s">
+        <v>488</v>
+      </c>
+      <c r="E103" t="s">
+        <v>489</v>
+      </c>
+      <c r="F103" t="s">
+        <v>25</v>
+      </c>
+      <c r="G103" t="s">
+        <v>25</v>
+      </c>
+      <c r="H103" t="s">
+        <v>33</v>
+      </c>
+      <c r="I103" t="s">
+        <v>17</v>
+      </c>
+      <c r="J103" t="s">
+        <v>64</v>
+      </c>
+      <c r="K103" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" t="s">
+        <v>490</v>
+      </c>
+      <c r="B104" t="s">
+        <v>491</v>
+      </c>
+      <c r="C104" t="s">
+        <v>492</v>
+      </c>
+      <c r="D104" t="s">
+        <v>493</v>
+      </c>
+      <c r="E104" t="s">
+        <v>371</v>
+      </c>
+      <c r="F104" t="s">
+        <v>25</v>
+      </c>
+      <c r="G104" t="s">
+        <v>25</v>
+      </c>
+      <c r="H104" t="s">
+        <v>33</v>
+      </c>
+      <c r="I104" t="s">
+        <v>19</v>
+      </c>
+      <c r="J104" t="s">
+        <v>64</v>
+      </c>
+      <c r="K104" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" t="s">
+        <v>494</v>
+      </c>
+      <c r="B105" t="s">
+        <v>495</v>
+      </c>
+      <c r="C105" t="s">
+        <v>496</v>
+      </c>
+      <c r="D105" t="s">
+        <v>497</v>
+      </c>
+      <c r="E105" t="s">
+        <v>149</v>
+      </c>
+      <c r="F105" t="s">
+        <v>32</v>
+      </c>
+      <c r="G105" t="s">
+        <v>19</v>
+      </c>
+      <c r="H105" t="s">
+        <v>26</v>
+      </c>
+      <c r="I105" t="s">
+        <v>18</v>
+      </c>
+      <c r="J105" t="s">
+        <v>64</v>
+      </c>
+      <c r="K105" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" t="s">
+        <v>498</v>
+      </c>
+      <c r="B106" t="s">
+        <v>229</v>
+      </c>
+      <c r="C106" t="s">
+        <v>499</v>
+      </c>
+      <c r="D106" t="s">
+        <v>500</v>
+      </c>
+      <c r="E106" t="s">
+        <v>222</v>
+      </c>
+      <c r="F106" t="s">
+        <v>25</v>
+      </c>
+      <c r="G106" t="s">
+        <v>25</v>
+      </c>
+      <c r="H106" t="s">
+        <v>39</v>
+      </c>
+      <c r="I106" t="s">
+        <v>17</v>
+      </c>
+      <c r="J106" t="s">
+        <v>18</v>
+      </c>
+      <c r="K106" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" t="s">
+        <v>501</v>
+      </c>
+      <c r="B107" t="s">
+        <v>502</v>
+      </c>
+      <c r="C107" t="s">
+        <v>503</v>
+      </c>
+      <c r="D107" t="s">
+        <v>504</v>
+      </c>
+      <c r="E107" t="s">
+        <v>270</v>
+      </c>
+      <c r="F107" t="s">
+        <v>25</v>
+      </c>
+      <c r="G107" t="s">
+        <v>25</v>
+      </c>
+      <c r="H107" t="s">
+        <v>39</v>
+      </c>
+      <c r="I107" t="s">
+        <v>18</v>
+      </c>
+      <c r="J107" t="s">
+        <v>64</v>
+      </c>
+      <c r="K107" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" t="s">
+        <v>505</v>
+      </c>
+      <c r="B108" t="s">
+        <v>506</v>
+      </c>
+      <c r="C108" t="s">
+        <v>507</v>
+      </c>
+      <c r="D108" t="s">
+        <v>508</v>
+      </c>
+      <c r="E108" t="s">
+        <v>444</v>
+      </c>
+      <c r="F108" t="s">
+        <v>16</v>
+      </c>
+      <c r="G108" t="s">
+        <v>25</v>
+      </c>
+      <c r="H108" t="s">
+        <v>18</v>
+      </c>
+      <c r="I108" t="s">
+        <v>19</v>
+      </c>
+      <c r="J108" t="s">
+        <v>64</v>
+      </c>
+      <c r="K108" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" t="s">
+        <v>509</v>
+      </c>
+      <c r="B109" t="s">
+        <v>510</v>
+      </c>
+      <c r="C109" t="s">
+        <v>511</v>
+      </c>
+      <c r="D109" t="s">
+        <v>512</v>
+      </c>
+      <c r="E109" t="s">
+        <v>191</v>
+      </c>
+      <c r="F109" t="s">
+        <v>16</v>
+      </c>
+      <c r="G109" t="s">
+        <v>19</v>
+      </c>
+      <c r="H109" t="s">
+        <v>33</v>
+      </c>
+      <c r="I109" t="s">
+        <v>18</v>
+      </c>
+      <c r="J109" t="s">
+        <v>64</v>
+      </c>
+      <c r="K109" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" t="s">
+        <v>513</v>
+      </c>
+      <c r="B110" t="s">
+        <v>514</v>
+      </c>
+      <c r="C110" t="s">
+        <v>515</v>
+      </c>
+      <c r="D110" t="s">
+        <v>516</v>
+      </c>
+      <c r="E110" t="s">
+        <v>348</v>
+      </c>
+      <c r="F110" t="s">
+        <v>16</v>
+      </c>
+      <c r="G110" t="s">
+        <v>17</v>
+      </c>
+      <c r="H110" t="s">
+        <v>18</v>
+      </c>
+      <c r="I110" t="s">
+        <v>17</v>
+      </c>
+      <c r="J110" t="s">
+        <v>64</v>
+      </c>
+      <c r="K110" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" t="s">
+        <v>517</v>
+      </c>
+      <c r="B111" t="s">
+        <v>518</v>
+      </c>
+      <c r="C111" t="s">
+        <v>519</v>
+      </c>
+      <c r="D111" t="s">
+        <v>520</v>
+      </c>
+      <c r="E111" t="s">
+        <v>126</v>
+      </c>
+      <c r="F111" t="s">
+        <v>16</v>
+      </c>
+      <c r="G111" t="s">
+        <v>17</v>
+      </c>
+      <c r="H111" t="s">
+        <v>33</v>
+      </c>
+      <c r="I111" t="s">
+        <v>19</v>
+      </c>
+      <c r="J111" t="s">
+        <v>64</v>
+      </c>
+      <c r="K111" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" t="s">
+        <v>521</v>
+      </c>
+      <c r="B112" t="s">
+        <v>522</v>
+      </c>
+      <c r="C112" t="s">
+        <v>523</v>
+      </c>
+      <c r="D112" t="s">
+        <v>524</v>
+      </c>
+      <c r="E112" t="s">
+        <v>232</v>
+      </c>
+      <c r="F112" t="s">
+        <v>16</v>
+      </c>
+      <c r="G112" t="s">
+        <v>17</v>
+      </c>
+      <c r="H112" t="s">
+        <v>18</v>
+      </c>
+      <c r="I112" t="s">
+        <v>17</v>
+      </c>
+      <c r="J112" t="s">
+        <v>64</v>
+      </c>
+      <c r="K112" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" t="s">
+        <v>525</v>
+      </c>
+      <c r="B113" t="s">
+        <v>526</v>
+      </c>
+      <c r="C113" t="s">
+        <v>527</v>
+      </c>
+      <c r="D113" t="s">
+        <v>528</v>
+      </c>
+      <c r="E113" t="s">
+        <v>529</v>
+      </c>
+      <c r="F113" t="s">
+        <v>25</v>
+      </c>
+      <c r="G113" t="s">
+        <v>19</v>
+      </c>
+      <c r="H113" t="s">
+        <v>39</v>
+      </c>
+      <c r="I113" t="s">
+        <v>19</v>
+      </c>
+      <c r="J113" t="s">
+        <v>18</v>
+      </c>
+      <c r="K113" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" t="s">
+        <v>530</v>
+      </c>
+      <c r="B114" t="s">
+        <v>531</v>
+      </c>
+      <c r="C114" t="s">
+        <v>532</v>
+      </c>
+      <c r="D114" t="s">
+        <v>533</v>
+      </c>
+      <c r="E114" t="s">
+        <v>84</v>
+      </c>
+      <c r="F114" t="s">
+        <v>16</v>
+      </c>
+      <c r="G114" t="s">
+        <v>17</v>
+      </c>
+      <c r="H114" t="s">
+        <v>18</v>
+      </c>
+      <c r="I114" t="s">
+        <v>17</v>
+      </c>
+      <c r="J114" t="s">
+        <v>18</v>
+      </c>
+      <c r="K114" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" t="s">
+        <v>534</v>
+      </c>
+      <c r="B115" t="s">
+        <v>535</v>
+      </c>
+      <c r="C115" t="s">
+        <v>536</v>
+      </c>
+      <c r="D115" t="s">
+        <v>537</v>
+      </c>
+      <c r="E115" t="s">
+        <v>168</v>
+      </c>
+      <c r="F115" t="s">
+        <v>32</v>
+      </c>
+      <c r="G115" t="s">
+        <v>17</v>
+      </c>
+      <c r="H115" t="s">
+        <v>18</v>
+      </c>
+      <c r="I115" t="s">
+        <v>17</v>
+      </c>
+      <c r="J115" t="s">
+        <v>64</v>
+      </c>
+      <c r="K115" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" t="s">
+        <v>538</v>
+      </c>
+      <c r="B116" t="s">
+        <v>383</v>
+      </c>
+      <c r="C116" t="s">
+        <v>539</v>
+      </c>
+      <c r="D116" t="s">
+        <v>540</v>
+      </c>
+      <c r="E116" t="s">
+        <v>541</v>
+      </c>
+      <c r="F116" t="s">
+        <v>32</v>
+      </c>
+      <c r="G116" t="s">
+        <v>19</v>
+      </c>
+      <c r="H116" t="s">
+        <v>18</v>
+      </c>
+      <c r="I116" t="s">
+        <v>19</v>
+      </c>
+      <c r="J116" t="s">
+        <v>18</v>
+      </c>
+      <c r="K116" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" t="s">
+        <v>542</v>
+      </c>
+      <c r="B117" t="s">
+        <v>543</v>
+      </c>
+      <c r="C117" t="s">
+        <v>544</v>
+      </c>
+      <c r="D117" t="s">
+        <v>545</v>
+      </c>
+      <c r="E117" t="s">
+        <v>395</v>
+      </c>
+      <c r="F117" t="s">
+        <v>16</v>
+      </c>
+      <c r="G117" t="s">
+        <v>25</v>
+      </c>
+      <c r="H117" t="s">
+        <v>26</v>
+      </c>
+      <c r="I117" t="s">
+        <v>19</v>
+      </c>
+      <c r="J117" t="s">
+        <v>18</v>
+      </c>
+      <c r="K117" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" t="s">
+        <v>546</v>
+      </c>
+      <c r="B118" t="s">
+        <v>547</v>
+      </c>
+      <c r="C118" t="s">
+        <v>548</v>
+      </c>
+      <c r="D118" t="s">
+        <v>549</v>
+      </c>
+      <c r="E118" t="s">
+        <v>550</v>
+      </c>
+      <c r="F118" t="s">
+        <v>16</v>
+      </c>
+      <c r="G118" t="s">
+        <v>19</v>
+      </c>
+      <c r="H118" t="s">
+        <v>26</v>
+      </c>
+      <c r="I118" t="s">
+        <v>18</v>
+      </c>
+      <c r="J118" t="s">
+        <v>64</v>
+      </c>
+      <c r="K118" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" t="s">
+        <v>551</v>
+      </c>
+      <c r="B119" t="s">
+        <v>552</v>
+      </c>
+      <c r="C119" t="s">
+        <v>553</v>
+      </c>
+      <c r="D119" t="s">
+        <v>554</v>
+      </c>
+      <c r="E119" t="s">
+        <v>555</v>
+      </c>
+      <c r="F119" t="s">
+        <v>16</v>
+      </c>
+      <c r="G119" t="s">
+        <v>17</v>
+      </c>
+      <c r="H119" t="s">
+        <v>39</v>
+      </c>
+      <c r="I119" t="s">
+        <v>17</v>
+      </c>
+      <c r="J119" t="s">
+        <v>18</v>
+      </c>
+      <c r="K119" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" t="s">
+        <v>556</v>
+      </c>
+      <c r="B120" t="s">
+        <v>557</v>
+      </c>
+      <c r="C120" t="s">
+        <v>558</v>
+      </c>
+      <c r="D120" t="s">
+        <v>559</v>
+      </c>
+      <c r="E120" t="s">
+        <v>560</v>
+      </c>
+      <c r="F120" t="s">
+        <v>32</v>
+      </c>
+      <c r="G120" t="s">
+        <v>25</v>
+      </c>
+      <c r="H120" t="s">
+        <v>33</v>
+      </c>
+      <c r="I120" t="s">
+        <v>19</v>
+      </c>
+      <c r="J120" t="s">
+        <v>18</v>
+      </c>
+      <c r="K120" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" t="s">
+        <v>561</v>
+      </c>
+      <c r="B121" t="s">
+        <v>562</v>
+      </c>
+      <c r="C121" t="s">
+        <v>563</v>
+      </c>
+      <c r="D121" t="s">
+        <v>564</v>
+      </c>
+      <c r="E121" t="s">
+        <v>565</v>
+      </c>
+      <c r="F121" t="s">
+        <v>16</v>
+      </c>
+      <c r="G121" t="s">
+        <v>19</v>
+      </c>
+      <c r="H121" t="s">
+        <v>33</v>
+      </c>
+      <c r="I121" t="s">
+        <v>19</v>
+      </c>
+      <c r="J121" t="s">
+        <v>18</v>
+      </c>
+      <c r="K121" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" t="s">
+        <v>566</v>
+      </c>
+      <c r="B122" t="s">
+        <v>567</v>
+      </c>
+      <c r="C122" t="s">
+        <v>568</v>
+      </c>
+      <c r="D122" t="s">
+        <v>569</v>
+      </c>
+      <c r="E122" t="s">
+        <v>570</v>
+      </c>
+      <c r="F122" t="s">
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>25</v>
+      </c>
+      <c r="H122" t="s">
+        <v>18</v>
+      </c>
+      <c r="I122" t="s">
+        <v>18</v>
+      </c>
+      <c r="J122" t="s">
+        <v>64</v>
+      </c>
+      <c r="K122" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" t="s">
+        <v>571</v>
+      </c>
+      <c r="B123" t="s">
+        <v>572</v>
+      </c>
+      <c r="C123" t="s">
+        <v>573</v>
+      </c>
+      <c r="D123" t="s">
+        <v>574</v>
+      </c>
+      <c r="E123" t="s">
+        <v>575</v>
+      </c>
+      <c r="F123" t="s">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>19</v>
+      </c>
+      <c r="H123" t="s">
+        <v>26</v>
+      </c>
+      <c r="I123" t="s">
+        <v>19</v>
+      </c>
+      <c r="J123" t="s">
+        <v>18</v>
+      </c>
+      <c r="K123" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" t="s">
+        <v>576</v>
+      </c>
+      <c r="B124" t="s">
+        <v>577</v>
+      </c>
+      <c r="C124" t="s">
+        <v>578</v>
+      </c>
+      <c r="D124" t="s">
+        <v>579</v>
+      </c>
+      <c r="E124" t="s">
+        <v>580</v>
+      </c>
+      <c r="F124" t="s">
+        <v>32</v>
+      </c>
+      <c r="G124" t="s">
+        <v>17</v>
+      </c>
+      <c r="H124" t="s">
+        <v>39</v>
+      </c>
+      <c r="I124" t="s">
+        <v>19</v>
+      </c>
+      <c r="J124" t="s">
+        <v>64</v>
+      </c>
+      <c r="K124" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" t="s">
+        <v>581</v>
+      </c>
+      <c r="B125" t="s">
+        <v>582</v>
+      </c>
+      <c r="C125" t="s">
+        <v>583</v>
+      </c>
+      <c r="D125" t="s">
+        <v>584</v>
+      </c>
+      <c r="E125" t="s">
+        <v>585</v>
+      </c>
+      <c r="F125" t="s">
+        <v>32</v>
+      </c>
+      <c r="G125" t="s">
+        <v>17</v>
+      </c>
+      <c r="H125" t="s">
+        <v>39</v>
+      </c>
+      <c r="I125" t="s">
+        <v>18</v>
+      </c>
+      <c r="J125" t="s">
+        <v>18</v>
+      </c>
+      <c r="K125" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" t="s">
+        <v>586</v>
+      </c>
+      <c r="B126" t="s">
+        <v>587</v>
+      </c>
+      <c r="C126" t="s">
+        <v>588</v>
+      </c>
+      <c r="D126" t="s">
+        <v>589</v>
+      </c>
+      <c r="E126" t="s">
+        <v>575</v>
+      </c>
+      <c r="F126" t="s">
+        <v>25</v>
+      </c>
+      <c r="G126" t="s">
+        <v>17</v>
+      </c>
+      <c r="H126" t="s">
+        <v>33</v>
+      </c>
+      <c r="I126" t="s">
+        <v>18</v>
+      </c>
+      <c r="J126" t="s">
+        <v>18</v>
+      </c>
+      <c r="K126" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" t="s">
+        <v>590</v>
+      </c>
+      <c r="B127" t="s">
+        <v>591</v>
+      </c>
+      <c r="C127" t="s">
+        <v>592</v>
+      </c>
+      <c r="D127" t="s">
+        <v>593</v>
+      </c>
+      <c r="E127" t="s">
+        <v>24</v>
+      </c>
+      <c r="F127" t="s">
+        <v>25</v>
+      </c>
+      <c r="G127" t="s">
+        <v>25</v>
+      </c>
+      <c r="H127" t="s">
+        <v>18</v>
+      </c>
+      <c r="I127" t="s">
+        <v>18</v>
+      </c>
+      <c r="J127" t="s">
+        <v>64</v>
+      </c>
+      <c r="K127" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" t="s">
+        <v>164</v>
+      </c>
+      <c r="B128" t="s">
+        <v>594</v>
+      </c>
+      <c r="C128" t="s">
+        <v>595</v>
+      </c>
+      <c r="D128" t="s">
+        <v>596</v>
+      </c>
+      <c r="E128" t="s">
+        <v>74</v>
+      </c>
+      <c r="F128" t="s">
+        <v>16</v>
+      </c>
+      <c r="G128" t="s">
+        <v>25</v>
+      </c>
+      <c r="H128" t="s">
+        <v>39</v>
+      </c>
+      <c r="I128" t="s">
+        <v>19</v>
+      </c>
+      <c r="J128" t="s">
+        <v>18</v>
+      </c>
+      <c r="K128" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" t="s">
+        <v>597</v>
+      </c>
+      <c r="B129" t="s">
+        <v>598</v>
+      </c>
+      <c r="C129" t="s">
+        <v>599</v>
+      </c>
+      <c r="D129" t="s">
+        <v>600</v>
+      </c>
+      <c r="E129" t="s">
+        <v>601</v>
+      </c>
+      <c r="F129" t="s">
+        <v>25</v>
+      </c>
+      <c r="G129" t="s">
+        <v>25</v>
+      </c>
+      <c r="H129" t="s">
+        <v>33</v>
+      </c>
+      <c r="I129" t="s">
+        <v>18</v>
+      </c>
+      <c r="J129" t="s">
+        <v>18</v>
+      </c>
+      <c r="K129" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" t="s">
+        <v>505</v>
+      </c>
+      <c r="B130" t="s">
+        <v>602</v>
+      </c>
+      <c r="C130" t="s">
+        <v>603</v>
+      </c>
+      <c r="D130" t="s">
+        <v>604</v>
+      </c>
+      <c r="E130" t="s">
+        <v>217</v>
+      </c>
+      <c r="F130" t="s">
+        <v>16</v>
+      </c>
+      <c r="G130" t="s">
+        <v>17</v>
+      </c>
+      <c r="H130" t="s">
+        <v>26</v>
+      </c>
+      <c r="I130" t="s">
+        <v>18</v>
+      </c>
+      <c r="J130" t="s">
+        <v>64</v>
+      </c>
+      <c r="K130" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" t="s">
+        <v>605</v>
+      </c>
+      <c r="B131" t="s">
+        <v>606</v>
+      </c>
+      <c r="C131" t="s">
+        <v>607</v>
+      </c>
+      <c r="D131" t="s">
+        <v>608</v>
+      </c>
+      <c r="E131" t="s">
+        <v>255</v>
+      </c>
+      <c r="F131" t="s">
+        <v>25</v>
+      </c>
+      <c r="G131" t="s">
+        <v>25</v>
+      </c>
+      <c r="H131" t="s">
+        <v>18</v>
+      </c>
+      <c r="I131" t="s">
+        <v>19</v>
+      </c>
+      <c r="J131" t="s">
+        <v>18</v>
+      </c>
+      <c r="K131" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" t="s">
+        <v>609</v>
+      </c>
+      <c r="B132" t="s">
+        <v>610</v>
+      </c>
+      <c r="C132" t="s">
+        <v>611</v>
+      </c>
+      <c r="D132" t="s">
+        <v>612</v>
+      </c>
+      <c r="E132" t="s">
+        <v>376</v>
+      </c>
+      <c r="F132" t="s">
+        <v>16</v>
+      </c>
+      <c r="G132" t="s">
+        <v>17</v>
+      </c>
+      <c r="H132" t="s">
+        <v>26</v>
+      </c>
+      <c r="I132" t="s">
+        <v>19</v>
+      </c>
+      <c r="J132" t="s">
+        <v>64</v>
+      </c>
+      <c r="K132" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" t="s">
+        <v>271</v>
+      </c>
+      <c r="B133" t="s">
+        <v>613</v>
+      </c>
+      <c r="C133" t="s">
+        <v>614</v>
+      </c>
+      <c r="D133" t="s">
+        <v>615</v>
+      </c>
+      <c r="E133" t="s">
+        <v>381</v>
+      </c>
+      <c r="F133" t="s">
+        <v>25</v>
+      </c>
+      <c r="G133" t="s">
+        <v>19</v>
+      </c>
+      <c r="H133" t="s">
+        <v>26</v>
+      </c>
+      <c r="I133" t="s">
+        <v>18</v>
+      </c>
+      <c r="J133" t="s">
+        <v>18</v>
+      </c>
+      <c r="K133" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" t="s">
+        <v>616</v>
+      </c>
+      <c r="B134" t="s">
+        <v>617</v>
+      </c>
+      <c r="C134" t="s">
+        <v>618</v>
+      </c>
+      <c r="D134" t="s">
+        <v>619</v>
+      </c>
+      <c r="E134" t="s">
+        <v>620</v>
+      </c>
+      <c r="F134" t="s">
+        <v>32</v>
+      </c>
+      <c r="G134" t="s">
+        <v>25</v>
+      </c>
+      <c r="H134" t="s">
+        <v>33</v>
+      </c>
+      <c r="I134" t="s">
+        <v>18</v>
+      </c>
+      <c r="J134" t="s">
+        <v>18</v>
+      </c>
+      <c r="K134" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" t="s">
+        <v>621</v>
+      </c>
+      <c r="B135" t="s">
+        <v>622</v>
+      </c>
+      <c r="C135" t="s">
+        <v>623</v>
+      </c>
+      <c r="D135" t="s">
+        <v>624</v>
+      </c>
+      <c r="E135" t="s">
+        <v>285</v>
+      </c>
+      <c r="F135" t="s">
+        <v>32</v>
+      </c>
+      <c r="G135" t="s">
+        <v>19</v>
+      </c>
+      <c r="H135" t="s">
+        <v>39</v>
+      </c>
+      <c r="I135" t="s">
+        <v>19</v>
+      </c>
+      <c r="J135" t="s">
+        <v>64</v>
+      </c>
+      <c r="K135" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" t="s">
+        <v>625</v>
+      </c>
+      <c r="B136" t="s">
+        <v>626</v>
+      </c>
+      <c r="C136" t="s">
+        <v>627</v>
+      </c>
+      <c r="D136" t="s">
+        <v>628</v>
+      </c>
+      <c r="E136" t="s">
+        <v>575</v>
+      </c>
+      <c r="F136" t="s">
+        <v>32</v>
+      </c>
+      <c r="G136" t="s">
+        <v>25</v>
+      </c>
+      <c r="H136" t="s">
+        <v>33</v>
+      </c>
+      <c r="I136" t="s">
+        <v>17</v>
+      </c>
+      <c r="J136" t="s">
+        <v>18</v>
+      </c>
+      <c r="K136" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" t="s">
+        <v>629</v>
+      </c>
+      <c r="B137" t="s">
+        <v>21</v>
+      </c>
+      <c r="C137" t="s">
+        <v>630</v>
+      </c>
+      <c r="D137" t="s">
+        <v>631</v>
+      </c>
+      <c r="E137" t="s">
+        <v>69</v>
+      </c>
+      <c r="F137" t="s">
+        <v>25</v>
+      </c>
+      <c r="G137" t="s">
+        <v>19</v>
+      </c>
+      <c r="H137" t="s">
+        <v>26</v>
+      </c>
+      <c r="I137" t="s">
+        <v>18</v>
+      </c>
+      <c r="J137" t="s">
+        <v>18</v>
+      </c>
+      <c r="K137" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" t="s">
+        <v>632</v>
+      </c>
+      <c r="B138" t="s">
+        <v>633</v>
+      </c>
+      <c r="C138" t="s">
+        <v>634</v>
+      </c>
+      <c r="D138" t="s">
+        <v>635</v>
+      </c>
+      <c r="E138" t="s">
+        <v>636</v>
+      </c>
+      <c r="F138" t="s">
+        <v>32</v>
+      </c>
+      <c r="G138" t="s">
+        <v>17</v>
+      </c>
+      <c r="H138" t="s">
+        <v>33</v>
+      </c>
+      <c r="I138" t="s">
+        <v>18</v>
+      </c>
+      <c r="J138" t="s">
+        <v>64</v>
+      </c>
+      <c r="K138" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" t="s">
+        <v>637</v>
+      </c>
+      <c r="B139" t="s">
+        <v>638</v>
+      </c>
+      <c r="C139" t="s">
+        <v>639</v>
+      </c>
+      <c r="D139" t="s">
+        <v>640</v>
+      </c>
+      <c r="E139" t="s">
+        <v>74</v>
+      </c>
+      <c r="F139" t="s">
+        <v>25</v>
+      </c>
+      <c r="G139" t="s">
+        <v>19</v>
+      </c>
+      <c r="H139" t="s">
+        <v>26</v>
+      </c>
+      <c r="I139" t="s">
+        <v>17</v>
+      </c>
+      <c r="J139" t="s">
+        <v>18</v>
+      </c>
+      <c r="K139" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" t="s">
+        <v>641</v>
+      </c>
+      <c r="B140" t="s">
+        <v>642</v>
+      </c>
+      <c r="C140" t="s">
+        <v>643</v>
+      </c>
+      <c r="D140" t="s">
+        <v>644</v>
+      </c>
+      <c r="E140" t="s">
+        <v>126</v>
+      </c>
+      <c r="F140" t="s">
+        <v>25</v>
+      </c>
+      <c r="G140" t="s">
+        <v>25</v>
+      </c>
+      <c r="H140" t="s">
+        <v>33</v>
+      </c>
+      <c r="I140" t="s">
+        <v>17</v>
+      </c>
+      <c r="J140" t="s">
+        <v>64</v>
+      </c>
+      <c r="K140" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" t="s">
+        <v>645</v>
+      </c>
+      <c r="B141" t="s">
+        <v>646</v>
+      </c>
+      <c r="C141" t="s">
+        <v>647</v>
+      </c>
+      <c r="D141" t="s">
+        <v>648</v>
+      </c>
+      <c r="E141" t="s">
+        <v>649</v>
+      </c>
+      <c r="F141" t="s">
+        <v>16</v>
+      </c>
+      <c r="G141" t="s">
+        <v>25</v>
+      </c>
+      <c r="H141" t="s">
+        <v>18</v>
+      </c>
+      <c r="I141" t="s">
+        <v>17</v>
+      </c>
+      <c r="J141" t="s">
+        <v>18</v>
+      </c>
+      <c r="K141" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" t="s">
+        <v>650</v>
+      </c>
+      <c r="B142" t="s">
+        <v>319</v>
+      </c>
+      <c r="C142" t="s">
+        <v>651</v>
+      </c>
+      <c r="D142" t="s">
+        <v>652</v>
+      </c>
+      <c r="E142" t="s">
+        <v>172</v>
+      </c>
+      <c r="F142" t="s">
+        <v>16</v>
+      </c>
+      <c r="G142" t="s">
+        <v>25</v>
+      </c>
+      <c r="H142" t="s">
+        <v>33</v>
+      </c>
+      <c r="I142" t="s">
+        <v>17</v>
+      </c>
+      <c r="J142" t="s">
+        <v>64</v>
+      </c>
+      <c r="K142" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" t="s">
+        <v>653</v>
+      </c>
+      <c r="B143" t="s">
+        <v>654</v>
+      </c>
+      <c r="C143" t="s">
+        <v>655</v>
+      </c>
+      <c r="D143" t="s">
+        <v>656</v>
+      </c>
+      <c r="E143" t="s">
+        <v>453</v>
+      </c>
+      <c r="F143" t="s">
+        <v>25</v>
+      </c>
+      <c r="G143" t="s">
+        <v>17</v>
+      </c>
+      <c r="H143" t="s">
+        <v>18</v>
+      </c>
+      <c r="I143" t="s">
+        <v>17</v>
+      </c>
+      <c r="J143" t="s">
+        <v>18</v>
+      </c>
+      <c r="K143" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" t="s">
+        <v>657</v>
+      </c>
+      <c r="B144" t="s">
+        <v>610</v>
+      </c>
+      <c r="C144" t="s">
+        <v>658</v>
+      </c>
+      <c r="D144" t="s">
+        <v>659</v>
+      </c>
+      <c r="E144" t="s">
+        <v>555</v>
+      </c>
+      <c r="F144" t="s">
+        <v>32</v>
+      </c>
+      <c r="G144" t="s">
+        <v>25</v>
+      </c>
+      <c r="H144" t="s">
+        <v>18</v>
+      </c>
+      <c r="I144" t="s">
+        <v>18</v>
+      </c>
+      <c r="J144" t="s">
+        <v>64</v>
+      </c>
+      <c r="K144" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" t="s">
+        <v>660</v>
+      </c>
+      <c r="B145" t="s">
+        <v>661</v>
+      </c>
+      <c r="C145" t="s">
+        <v>662</v>
+      </c>
+      <c r="D145" t="s">
+        <v>663</v>
+      </c>
+      <c r="E145" t="s">
+        <v>480</v>
+      </c>
+      <c r="F145" t="s">
+        <v>16</v>
+      </c>
+      <c r="G145" t="s">
+        <v>25</v>
+      </c>
+      <c r="H145" t="s">
+        <v>33</v>
+      </c>
+      <c r="I145" t="s">
+        <v>19</v>
+      </c>
+      <c r="J145" t="s">
+        <v>18</v>
+      </c>
+      <c r="K145" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" t="s">
+        <v>664</v>
+      </c>
+      <c r="B146" t="s">
+        <v>665</v>
+      </c>
+      <c r="C146" t="s">
+        <v>666</v>
+      </c>
+      <c r="D146" t="s">
+        <v>667</v>
+      </c>
+      <c r="E146" t="s">
+        <v>270</v>
+      </c>
+      <c r="F146" t="s">
+        <v>32</v>
+      </c>
+      <c r="G146" t="s">
+        <v>17</v>
+      </c>
+      <c r="H146" t="s">
+        <v>39</v>
+      </c>
+      <c r="I146" t="s">
+        <v>17</v>
+      </c>
+      <c r="J146" t="s">
+        <v>64</v>
+      </c>
+      <c r="K146" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" t="s">
+        <v>668</v>
+      </c>
+      <c r="B147" t="s">
+        <v>669</v>
+      </c>
+      <c r="C147" t="s">
+        <v>670</v>
+      </c>
+      <c r="D147" t="s">
+        <v>671</v>
+      </c>
+      <c r="E147" t="s">
+        <v>172</v>
+      </c>
+      <c r="F147" t="s">
+        <v>16</v>
+      </c>
+      <c r="G147" t="s">
+        <v>25</v>
+      </c>
+      <c r="H147" t="s">
+        <v>26</v>
+      </c>
+      <c r="I147" t="s">
+        <v>17</v>
+      </c>
+      <c r="J147" t="s">
+        <v>64</v>
+      </c>
+      <c r="K147" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" t="s">
+        <v>672</v>
+      </c>
+      <c r="B148" t="s">
+        <v>673</v>
+      </c>
+      <c r="C148" t="s">
+        <v>674</v>
+      </c>
+      <c r="D148" t="s">
+        <v>675</v>
+      </c>
+      <c r="E148" t="s">
+        <v>260</v>
+      </c>
+      <c r="F148" t="s">
+        <v>32</v>
+      </c>
+      <c r="G148" t="s">
+        <v>25</v>
+      </c>
+      <c r="H148" t="s">
+        <v>33</v>
+      </c>
+      <c r="I148" t="s">
+        <v>19</v>
+      </c>
+      <c r="J148" t="s">
+        <v>64</v>
+      </c>
+      <c r="K148" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" t="s">
+        <v>676</v>
+      </c>
+      <c r="B149" t="s">
+        <v>677</v>
+      </c>
+      <c r="C149" t="s">
+        <v>678</v>
+      </c>
+      <c r="D149" t="s">
+        <v>679</v>
+      </c>
+      <c r="E149" t="s">
+        <v>680</v>
+      </c>
+      <c r="F149" t="s">
+        <v>25</v>
+      </c>
+      <c r="G149" t="s">
+        <v>17</v>
+      </c>
+      <c r="H149" t="s">
+        <v>26</v>
+      </c>
+      <c r="I149" t="s">
+        <v>17</v>
+      </c>
+      <c r="J149" t="s">
+        <v>64</v>
+      </c>
+      <c r="K149" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" t="s">
+        <v>681</v>
+      </c>
+      <c r="B150" t="s">
+        <v>682</v>
+      </c>
+      <c r="C150" t="s">
+        <v>683</v>
+      </c>
+      <c r="D150" t="s">
+        <v>684</v>
+      </c>
+      <c r="E150" t="s">
+        <v>69</v>
+      </c>
+      <c r="F150" t="s">
+        <v>32</v>
+      </c>
+      <c r="G150" t="s">
+        <v>17</v>
+      </c>
+      <c r="H150" t="s">
+        <v>26</v>
+      </c>
+      <c r="I150" t="s">
+        <v>18</v>
+      </c>
+      <c r="J150" t="s">
+        <v>18</v>
+      </c>
+      <c r="K150" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" t="s">
+        <v>685</v>
+      </c>
+      <c r="B151" t="s">
+        <v>686</v>
+      </c>
+      <c r="C151" t="s">
+        <v>687</v>
+      </c>
+      <c r="D151" t="s">
+        <v>688</v>
+      </c>
+      <c r="E151" t="s">
+        <v>49</v>
+      </c>
+      <c r="F151" t="s">
+        <v>16</v>
+      </c>
+      <c r="G151" t="s">
+        <v>19</v>
+      </c>
+      <c r="H151" t="s">
+        <v>39</v>
+      </c>
+      <c r="I151" t="s">
+        <v>17</v>
+      </c>
+      <c r="J151" t="s">
+        <v>18</v>
+      </c>
+      <c r="K151" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" t="s">
+        <v>689</v>
+      </c>
+      <c r="B152" t="s">
+        <v>690</v>
+      </c>
+      <c r="C152" t="s">
+        <v>691</v>
+      </c>
+      <c r="D152" t="s">
+        <v>692</v>
+      </c>
+      <c r="E152" t="s">
+        <v>191</v>
+      </c>
+      <c r="F152" t="s">
+        <v>16</v>
+      </c>
+      <c r="G152" t="s">
+        <v>19</v>
+      </c>
+      <c r="H152" t="s">
+        <v>26</v>
+      </c>
+      <c r="I152" t="s">
+        <v>17</v>
+      </c>
+      <c r="J152" t="s">
+        <v>64</v>
+      </c>
+      <c r="K152" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" t="s">
+        <v>693</v>
+      </c>
+      <c r="B153" t="s">
+        <v>694</v>
+      </c>
+      <c r="C153" t="s">
+        <v>695</v>
+      </c>
+      <c r="D153" t="s">
+        <v>696</v>
+      </c>
+      <c r="E153" t="s">
+        <v>697</v>
+      </c>
+      <c r="F153" t="s">
+        <v>32</v>
+      </c>
+      <c r="G153" t="s">
+        <v>25</v>
+      </c>
+      <c r="H153" t="s">
+        <v>39</v>
+      </c>
+      <c r="I153" t="s">
+        <v>17</v>
+      </c>
+      <c r="J153" t="s">
+        <v>64</v>
+      </c>
+      <c r="K153" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" t="s">
+        <v>159</v>
+      </c>
+      <c r="B154" t="s">
+        <v>698</v>
+      </c>
+      <c r="C154" t="s">
+        <v>699</v>
+      </c>
+      <c r="D154" t="s">
+        <v>700</v>
+      </c>
+      <c r="E154" t="s">
+        <v>453</v>
+      </c>
+      <c r="F154" t="s">
+        <v>32</v>
+      </c>
+      <c r="G154" t="s">
+        <v>17</v>
+      </c>
+      <c r="H154" t="s">
+        <v>26</v>
+      </c>
+      <c r="I154" t="s">
+        <v>19</v>
+      </c>
+      <c r="J154" t="s">
+        <v>64</v>
+      </c>
+      <c r="K154" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" t="s">
+        <v>701</v>
+      </c>
+      <c r="B155" t="s">
+        <v>702</v>
+      </c>
+      <c r="C155" t="s">
+        <v>703</v>
+      </c>
+      <c r="D155" t="s">
+        <v>704</v>
+      </c>
+      <c r="E155" t="s">
+        <v>255</v>
+      </c>
+      <c r="F155" t="s">
+        <v>16</v>
+      </c>
+      <c r="G155" t="s">
+        <v>17</v>
+      </c>
+      <c r="H155" t="s">
+        <v>26</v>
+      </c>
+      <c r="I155" t="s">
+        <v>17</v>
+      </c>
+      <c r="J155" t="s">
+        <v>18</v>
+      </c>
+      <c r="K155" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" t="s">
+        <v>705</v>
+      </c>
+      <c r="B156" t="s">
+        <v>706</v>
+      </c>
+      <c r="C156" t="s">
+        <v>707</v>
+      </c>
+      <c r="D156" t="s">
+        <v>708</v>
+      </c>
+      <c r="E156" t="s">
+        <v>709</v>
+      </c>
+      <c r="F156" t="s">
+        <v>16</v>
+      </c>
+      <c r="G156" t="s">
+        <v>17</v>
+      </c>
+      <c r="H156" t="s">
+        <v>18</v>
+      </c>
+      <c r="I156" t="s">
+        <v>18</v>
+      </c>
+      <c r="J156" t="s">
+        <v>18</v>
+      </c>
+      <c r="K156" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" t="s">
+        <v>710</v>
+      </c>
+      <c r="B157" t="s">
+        <v>711</v>
+      </c>
+      <c r="C157" t="s">
+        <v>712</v>
+      </c>
+      <c r="D157" t="s">
+        <v>713</v>
+      </c>
+      <c r="E157" t="s">
+        <v>186</v>
+      </c>
+      <c r="F157" t="s">
+        <v>16</v>
+      </c>
+      <c r="G157" t="s">
+        <v>19</v>
+      </c>
+      <c r="H157" t="s">
+        <v>26</v>
+      </c>
+      <c r="I157" t="s">
+        <v>18</v>
+      </c>
+      <c r="J157" t="s">
+        <v>64</v>
+      </c>
+      <c r="K157" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" t="s">
+        <v>714</v>
+      </c>
+      <c r="B158" t="s">
+        <v>715</v>
+      </c>
+      <c r="C158" t="s">
+        <v>716</v>
+      </c>
+      <c r="D158" t="s">
+        <v>717</v>
+      </c>
+      <c r="E158" t="s">
+        <v>471</v>
+      </c>
+      <c r="F158" t="s">
+        <v>25</v>
+      </c>
+      <c r="G158" t="s">
+        <v>25</v>
+      </c>
+      <c r="H158" t="s">
+        <v>33</v>
+      </c>
+      <c r="I158" t="s">
+        <v>19</v>
+      </c>
+      <c r="J158" t="s">
+        <v>64</v>
+      </c>
+      <c r="K158" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" t="s">
+        <v>718</v>
+      </c>
+      <c r="B159" t="s">
+        <v>719</v>
+      </c>
+      <c r="C159" t="s">
+        <v>720</v>
+      </c>
+      <c r="D159" t="s">
+        <v>721</v>
+      </c>
+      <c r="E159" t="s">
+        <v>58</v>
+      </c>
+      <c r="F159" t="s">
+        <v>16</v>
+      </c>
+      <c r="G159" t="s">
+        <v>19</v>
+      </c>
+      <c r="H159" t="s">
+        <v>18</v>
+      </c>
+      <c r="I159" t="s">
+        <v>17</v>
+      </c>
+      <c r="J159" t="s">
+        <v>64</v>
+      </c>
+      <c r="K159" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" t="s">
+        <v>722</v>
+      </c>
+      <c r="B160" t="s">
+        <v>723</v>
+      </c>
+      <c r="C160" t="s">
+        <v>724</v>
+      </c>
+      <c r="D160" t="s">
+        <v>725</v>
+      </c>
+      <c r="E160" t="s">
+        <v>265</v>
+      </c>
+      <c r="F160" t="s">
+        <v>25</v>
+      </c>
+      <c r="G160" t="s">
+        <v>25</v>
+      </c>
+      <c r="H160" t="s">
+        <v>18</v>
+      </c>
+      <c r="I160" t="s">
+        <v>19</v>
+      </c>
+      <c r="J160" t="s">
+        <v>18</v>
+      </c>
+      <c r="K160" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" t="s">
+        <v>726</v>
+      </c>
+      <c r="B161" t="s">
+        <v>727</v>
+      </c>
+      <c r="C161" t="s">
+        <v>728</v>
+      </c>
+      <c r="D161" t="s">
+        <v>729</v>
+      </c>
+      <c r="E161" t="s">
+        <v>560</v>
+      </c>
+      <c r="F161" t="s">
+        <v>32</v>
+      </c>
+      <c r="G161" t="s">
+        <v>17</v>
+      </c>
+      <c r="H161" t="s">
+        <v>26</v>
+      </c>
+      <c r="I161" t="s">
+        <v>17</v>
+      </c>
+      <c r="J161" t="s">
+        <v>64</v>
+      </c>
+      <c r="K161" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" t="s">
+        <v>730</v>
+      </c>
+      <c r="B162" t="s">
+        <v>731</v>
+      </c>
+      <c r="C162" t="s">
+        <v>732</v>
+      </c>
+      <c r="D162" t="s">
+        <v>733</v>
+      </c>
+      <c r="E162" t="s">
+        <v>734</v>
+      </c>
+      <c r="F162" t="s">
+        <v>25</v>
+      </c>
+      <c r="G162" t="s">
+        <v>25</v>
+      </c>
+      <c r="H162" t="s">
+        <v>33</v>
+      </c>
+      <c r="I162" t="s">
+        <v>18</v>
+      </c>
+      <c r="J162" t="s">
+        <v>18</v>
+      </c>
+      <c r="K162" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" t="s">
+        <v>735</v>
+      </c>
+      <c r="B163" t="s">
+        <v>736</v>
+      </c>
+      <c r="C163" t="s">
+        <v>737</v>
+      </c>
+      <c r="D163" t="s">
+        <v>738</v>
+      </c>
+      <c r="E163" t="s">
+        <v>471</v>
+      </c>
+      <c r="F163" t="s">
+        <v>25</v>
+      </c>
+      <c r="G163" t="s">
+        <v>17</v>
+      </c>
+      <c r="H163" t="s">
+        <v>33</v>
+      </c>
+      <c r="I163" t="s">
+        <v>17</v>
+      </c>
+      <c r="J163" t="s">
+        <v>18</v>
+      </c>
+      <c r="K163" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" t="s">
+        <v>739</v>
+      </c>
+      <c r="B164" t="s">
+        <v>740</v>
+      </c>
+      <c r="C164" t="s">
+        <v>741</v>
+      </c>
+      <c r="D164" t="s">
+        <v>742</v>
+      </c>
+      <c r="E164" t="s">
+        <v>743</v>
+      </c>
+      <c r="F164" t="s">
+        <v>32</v>
+      </c>
+      <c r="G164" t="s">
+        <v>19</v>
+      </c>
+      <c r="H164" t="s">
+        <v>26</v>
+      </c>
+      <c r="I164" t="s">
+        <v>19</v>
+      </c>
+      <c r="J164" t="s">
+        <v>18</v>
+      </c>
+      <c r="K164" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165" t="s">
+        <v>744</v>
+      </c>
+      <c r="B165" t="s">
+        <v>745</v>
+      </c>
+      <c r="C165" t="s">
+        <v>746</v>
+      </c>
+      <c r="D165" t="s">
+        <v>747</v>
+      </c>
+      <c r="E165" t="s">
+        <v>453</v>
+      </c>
+      <c r="F165" t="s">
+        <v>32</v>
+      </c>
+      <c r="G165" t="s">
+        <v>17</v>
+      </c>
+      <c r="H165" t="s">
+        <v>26</v>
+      </c>
+      <c r="I165" t="s">
+        <v>19</v>
+      </c>
+      <c r="J165" t="s">
+        <v>64</v>
+      </c>
+      <c r="K165" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" t="s">
+        <v>748</v>
+      </c>
+      <c r="B166" t="s">
+        <v>491</v>
+      </c>
+      <c r="C166" t="s">
+        <v>749</v>
+      </c>
+      <c r="D166" t="s">
+        <v>750</v>
+      </c>
+      <c r="E166" t="s">
+        <v>74</v>
+      </c>
+      <c r="F166" t="s">
+        <v>16</v>
+      </c>
+      <c r="G166" t="s">
+        <v>25</v>
+      </c>
+      <c r="H166" t="s">
+        <v>33</v>
+      </c>
+      <c r="I166" t="s">
+        <v>17</v>
+      </c>
+      <c r="J166" t="s">
+        <v>18</v>
+      </c>
+      <c r="K166" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167" t="s">
+        <v>751</v>
+      </c>
+      <c r="B167" t="s">
+        <v>752</v>
+      </c>
+      <c r="C167" t="s">
+        <v>753</v>
+      </c>
+      <c r="D167" t="s">
+        <v>754</v>
+      </c>
+      <c r="E167" t="s">
+        <v>575</v>
+      </c>
+      <c r="F167" t="s">
+        <v>32</v>
+      </c>
+      <c r="G167" t="s">
+        <v>17</v>
+      </c>
+      <c r="H167" t="s">
+        <v>26</v>
+      </c>
+      <c r="I167" t="s">
+        <v>19</v>
+      </c>
+      <c r="J167" t="s">
+        <v>18</v>
+      </c>
+      <c r="K167" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" t="s">
+        <v>755</v>
+      </c>
+      <c r="B168" t="s">
+        <v>756</v>
+      </c>
+      <c r="C168" t="s">
+        <v>757</v>
+      </c>
+      <c r="D168" t="s">
+        <v>758</v>
+      </c>
+      <c r="E168" t="s">
+        <v>759</v>
+      </c>
+      <c r="F168" t="s">
+        <v>32</v>
+      </c>
+      <c r="G168" t="s">
+        <v>19</v>
+      </c>
+      <c r="H168" t="s">
+        <v>18</v>
+      </c>
+      <c r="I168" t="s">
+        <v>19</v>
+      </c>
+      <c r="J168" t="s">
+        <v>64</v>
+      </c>
+      <c r="K168" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169" t="s">
+        <v>760</v>
+      </c>
+      <c r="B169" t="s">
+        <v>761</v>
+      </c>
+      <c r="C169" t="s">
+        <v>762</v>
+      </c>
+      <c r="D169" t="s">
+        <v>763</v>
+      </c>
+      <c r="E169" t="s">
+        <v>38</v>
+      </c>
+      <c r="F169" t="s">
+        <v>16</v>
+      </c>
+      <c r="G169" t="s">
+        <v>19</v>
+      </c>
+      <c r="H169" t="s">
+        <v>33</v>
+      </c>
+      <c r="I169" t="s">
+        <v>19</v>
+      </c>
+      <c r="J169" t="s">
+        <v>64</v>
+      </c>
+      <c r="K169" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170" t="s">
+        <v>764</v>
+      </c>
+      <c r="B170" t="s">
+        <v>765</v>
+      </c>
+      <c r="C170" t="s">
+        <v>766</v>
+      </c>
+      <c r="D170" t="s">
+        <v>767</v>
+      </c>
+      <c r="E170" t="s">
+        <v>371</v>
+      </c>
+      <c r="F170" t="s">
+        <v>32</v>
+      </c>
+      <c r="G170" t="s">
+        <v>25</v>
+      </c>
+      <c r="H170" t="s">
+        <v>26</v>
+      </c>
+      <c r="I170" t="s">
+        <v>19</v>
+      </c>
+      <c r="J170" t="s">
+        <v>18</v>
+      </c>
+      <c r="K170" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171" t="s">
+        <v>768</v>
+      </c>
+      <c r="B171" t="s">
+        <v>769</v>
+      </c>
+      <c r="C171" t="s">
+        <v>770</v>
+      </c>
+      <c r="D171" t="s">
+        <v>771</v>
+      </c>
+      <c r="E171" t="s">
+        <v>759</v>
+      </c>
+      <c r="F171" t="s">
+        <v>32</v>
+      </c>
+      <c r="G171" t="s">
+        <v>19</v>
+      </c>
+      <c r="H171" t="s">
+        <v>26</v>
+      </c>
+      <c r="I171" t="s">
+        <v>18</v>
+      </c>
+      <c r="J171" t="s">
+        <v>64</v>
+      </c>
+      <c r="K171" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172" t="s">
+        <v>772</v>
+      </c>
+      <c r="B172" t="s">
+        <v>773</v>
+      </c>
+      <c r="C172" t="s">
+        <v>774</v>
+      </c>
+      <c r="D172" t="s">
+        <v>775</v>
+      </c>
+      <c r="E172" t="s">
+        <v>636</v>
+      </c>
+      <c r="F172" t="s">
+        <v>16</v>
+      </c>
+      <c r="G172" t="s">
+        <v>17</v>
+      </c>
+      <c r="H172" t="s">
+        <v>26</v>
+      </c>
+      <c r="I172" t="s">
+        <v>18</v>
+      </c>
+      <c r="J172" t="s">
+        <v>64</v>
+      </c>
+      <c r="K172" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173" t="s">
+        <v>556</v>
+      </c>
+      <c r="B173" t="s">
+        <v>776</v>
+      </c>
+      <c r="C173" t="s">
+        <v>777</v>
+      </c>
+      <c r="D173" t="s">
+        <v>778</v>
+      </c>
+      <c r="E173" t="s">
+        <v>453</v>
+      </c>
+      <c r="F173" t="s">
+        <v>16</v>
+      </c>
+      <c r="G173" t="s">
+        <v>25</v>
+      </c>
+      <c r="H173" t="s">
+        <v>26</v>
+      </c>
+      <c r="I173" t="s">
+        <v>18</v>
+      </c>
+      <c r="J173" t="s">
+        <v>18</v>
+      </c>
+      <c r="K173" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174" t="s">
+        <v>779</v>
+      </c>
+      <c r="B174" t="s">
+        <v>780</v>
+      </c>
+      <c r="C174" t="s">
+        <v>781</v>
+      </c>
+      <c r="D174" t="s">
+        <v>782</v>
+      </c>
+      <c r="E174" t="s">
+        <v>200</v>
+      </c>
+      <c r="F174" t="s">
+        <v>32</v>
+      </c>
+      <c r="G174" t="s">
+        <v>25</v>
+      </c>
+      <c r="H174" t="s">
+        <v>18</v>
+      </c>
+      <c r="I174" t="s">
+        <v>18</v>
+      </c>
+      <c r="J174" t="s">
+        <v>18</v>
+      </c>
+      <c r="K174" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175" t="s">
+        <v>783</v>
+      </c>
+      <c r="B175" t="s">
+        <v>784</v>
+      </c>
+      <c r="C175" t="s">
+        <v>785</v>
+      </c>
+      <c r="D175" t="s">
+        <v>786</v>
+      </c>
+      <c r="E175" t="s">
+        <v>787</v>
+      </c>
+      <c r="F175" t="s">
+        <v>16</v>
+      </c>
+      <c r="G175" t="s">
+        <v>25</v>
+      </c>
+      <c r="H175" t="s">
+        <v>39</v>
+      </c>
+      <c r="I175" t="s">
+        <v>17</v>
+      </c>
+      <c r="J175" t="s">
+        <v>18</v>
+      </c>
+      <c r="K175" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176" t="s">
+        <v>788</v>
+      </c>
+      <c r="B176" t="s">
+        <v>789</v>
+      </c>
+      <c r="C176" t="s">
+        <v>790</v>
+      </c>
+      <c r="D176" t="s">
+        <v>791</v>
+      </c>
+      <c r="E176" t="s">
+        <v>734</v>
+      </c>
+      <c r="F176" t="s">
+        <v>25</v>
+      </c>
+      <c r="G176" t="s">
+        <v>25</v>
+      </c>
+      <c r="H176" t="s">
+        <v>18</v>
+      </c>
+      <c r="I176" t="s">
+        <v>17</v>
+      </c>
+      <c r="J176" t="s">
+        <v>64</v>
+      </c>
+      <c r="K176" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177" t="s">
+        <v>792</v>
+      </c>
+      <c r="B177" t="s">
+        <v>793</v>
+      </c>
+      <c r="C177" t="s">
+        <v>794</v>
+      </c>
+      <c r="D177" t="s">
+        <v>795</v>
+      </c>
+      <c r="E177" t="s">
+        <v>89</v>
+      </c>
+      <c r="F177" t="s">
+        <v>32</v>
+      </c>
+      <c r="G177" t="s">
+        <v>25</v>
+      </c>
+      <c r="H177" t="s">
+        <v>26</v>
+      </c>
+      <c r="I177" t="s">
+        <v>17</v>
+      </c>
+      <c r="J177" t="s">
+        <v>18</v>
+      </c>
+      <c r="K177" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178" t="s">
+        <v>796</v>
+      </c>
+      <c r="B178" t="s">
+        <v>797</v>
+      </c>
+      <c r="C178" t="s">
+        <v>798</v>
+      </c>
+      <c r="D178" t="s">
+        <v>799</v>
+      </c>
+      <c r="E178" t="s">
+        <v>386</v>
+      </c>
+      <c r="F178" t="s">
+        <v>16</v>
+      </c>
+      <c r="G178" t="s">
+        <v>25</v>
+      </c>
+      <c r="H178" t="s">
+        <v>18</v>
+      </c>
+      <c r="I178" t="s">
+        <v>18</v>
+      </c>
+      <c r="J178" t="s">
+        <v>18</v>
+      </c>
+      <c r="K178" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179" t="s">
+        <v>800</v>
+      </c>
+      <c r="B179" t="s">
+        <v>702</v>
+      </c>
+      <c r="C179" t="s">
+        <v>801</v>
+      </c>
+      <c r="D179" t="s">
+        <v>802</v>
+      </c>
+      <c r="E179" t="s">
+        <v>620</v>
+      </c>
+      <c r="F179" t="s">
+        <v>32</v>
+      </c>
+      <c r="G179" t="s">
+        <v>25</v>
+      </c>
+      <c r="H179" t="s">
+        <v>26</v>
+      </c>
+      <c r="I179" t="s">
+        <v>19</v>
+      </c>
+      <c r="J179" t="s">
+        <v>64</v>
+      </c>
+      <c r="K179" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180" t="s">
+        <v>576</v>
+      </c>
+      <c r="B180" t="s">
+        <v>803</v>
+      </c>
+      <c r="C180" t="s">
+        <v>804</v>
+      </c>
+      <c r="D180" t="s">
+        <v>805</v>
+      </c>
+      <c r="E180" t="s">
+        <v>806</v>
+      </c>
+      <c r="F180" t="s">
+        <v>16</v>
+      </c>
+      <c r="G180" t="s">
+        <v>19</v>
+      </c>
+      <c r="H180" t="s">
+        <v>18</v>
+      </c>
+      <c r="I180" t="s">
+        <v>18</v>
+      </c>
+      <c r="J180" t="s">
+        <v>18</v>
+      </c>
+      <c r="K180" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181" t="s">
+        <v>807</v>
+      </c>
+      <c r="B181" t="s">
+        <v>808</v>
+      </c>
+      <c r="C181" t="s">
+        <v>809</v>
+      </c>
+      <c r="D181" t="s">
+        <v>810</v>
+      </c>
+      <c r="E181" t="s">
+        <v>565</v>
+      </c>
+      <c r="F181" t="s">
+        <v>32</v>
+      </c>
+      <c r="G181" t="s">
+        <v>17</v>
+      </c>
+      <c r="H181" t="s">
+        <v>33</v>
+      </c>
+      <c r="I181" t="s">
+        <v>17</v>
+      </c>
+      <c r="J181" t="s">
+        <v>64</v>
+      </c>
+      <c r="K181" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182" t="s">
+        <v>811</v>
+      </c>
+      <c r="B182" t="s">
+        <v>812</v>
+      </c>
+      <c r="C182" t="s">
+        <v>813</v>
+      </c>
+      <c r="D182" t="s">
+        <v>814</v>
+      </c>
+      <c r="E182" t="s">
+        <v>636</v>
+      </c>
+      <c r="F182" t="s">
+        <v>32</v>
+      </c>
+      <c r="G182" t="s">
+        <v>19</v>
+      </c>
+      <c r="H182" t="s">
+        <v>26</v>
+      </c>
+      <c r="I182" t="s">
+        <v>19</v>
+      </c>
+      <c r="J182" t="s">
+        <v>18</v>
+      </c>
+      <c r="K182" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183" t="s">
+        <v>815</v>
+      </c>
+      <c r="B183" t="s">
+        <v>816</v>
+      </c>
+      <c r="C183" t="s">
+        <v>817</v>
+      </c>
+      <c r="D183" t="s">
+        <v>818</v>
+      </c>
+      <c r="E183" t="s">
+        <v>819</v>
+      </c>
+      <c r="F183" t="s">
+        <v>25</v>
+      </c>
+      <c r="G183" t="s">
+        <v>19</v>
+      </c>
+      <c r="H183" t="s">
+        <v>33</v>
+      </c>
+      <c r="I183" t="s">
+        <v>18</v>
+      </c>
+      <c r="J183" t="s">
+        <v>64</v>
+      </c>
+      <c r="K183" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184" t="s">
+        <v>416</v>
+      </c>
+      <c r="B184" t="s">
+        <v>820</v>
+      </c>
+      <c r="C184" t="s">
+        <v>821</v>
+      </c>
+      <c r="D184" t="s">
+        <v>822</v>
+      </c>
+      <c r="E184" t="s">
+        <v>471</v>
+      </c>
+      <c r="F184" t="s">
+        <v>16</v>
+      </c>
+      <c r="G184" t="s">
+        <v>25</v>
+      </c>
+      <c r="H184" t="s">
+        <v>26</v>
+      </c>
+      <c r="I184" t="s">
+        <v>17</v>
+      </c>
+      <c r="J184" t="s">
+        <v>64</v>
+      </c>
+      <c r="K184" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185" t="s">
+        <v>823</v>
+      </c>
+      <c r="B185" t="s">
+        <v>531</v>
+      </c>
+      <c r="C185" t="s">
+        <v>824</v>
+      </c>
+      <c r="D185" t="s">
+        <v>825</v>
+      </c>
+      <c r="E185" t="s">
+        <v>560</v>
+      </c>
+      <c r="F185" t="s">
+        <v>25</v>
+      </c>
+      <c r="G185" t="s">
+        <v>17</v>
+      </c>
+      <c r="H185" t="s">
+        <v>18</v>
+      </c>
+      <c r="I185" t="s">
+        <v>17</v>
+      </c>
+      <c r="J185" t="s">
+        <v>18</v>
+      </c>
+      <c r="K185" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186" t="s">
+        <v>826</v>
+      </c>
+      <c r="B186" t="s">
+        <v>827</v>
+      </c>
+      <c r="C186" t="s">
+        <v>828</v>
+      </c>
+      <c r="D186" t="s">
+        <v>829</v>
+      </c>
+      <c r="E186" t="s">
+        <v>830</v>
+      </c>
+      <c r="F186" t="s">
+        <v>16</v>
+      </c>
+      <c r="G186" t="s">
+        <v>17</v>
+      </c>
+      <c r="H186" t="s">
+        <v>26</v>
+      </c>
+      <c r="I186" t="s">
+        <v>19</v>
+      </c>
+      <c r="J186" t="s">
+        <v>64</v>
+      </c>
+      <c r="K186" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187" t="s">
+        <v>173</v>
+      </c>
+      <c r="B187" t="s">
+        <v>831</v>
+      </c>
+      <c r="C187" t="s">
+        <v>832</v>
+      </c>
+      <c r="D187" t="s">
+        <v>833</v>
+      </c>
+      <c r="E187" t="s">
+        <v>834</v>
+      </c>
+      <c r="F187" t="s">
+        <v>25</v>
+      </c>
+      <c r="G187" t="s">
+        <v>25</v>
+      </c>
+      <c r="H187" t="s">
+        <v>18</v>
+      </c>
+      <c r="I187" t="s">
+        <v>19</v>
+      </c>
+      <c r="J187" t="s">
+        <v>64</v>
+      </c>
+      <c r="K187" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188" t="s">
+        <v>286</v>
+      </c>
+      <c r="B188" t="s">
+        <v>835</v>
+      </c>
+      <c r="C188" t="s">
+        <v>836</v>
+      </c>
+      <c r="D188" t="s">
+        <v>837</v>
+      </c>
+      <c r="E188" t="s">
+        <v>250</v>
+      </c>
+      <c r="F188" t="s">
+        <v>25</v>
+      </c>
+      <c r="G188" t="s">
+        <v>25</v>
+      </c>
+      <c r="H188" t="s">
+        <v>26</v>
+      </c>
+      <c r="I188" t="s">
+        <v>18</v>
+      </c>
+      <c r="J188" t="s">
+        <v>64</v>
+      </c>
+      <c r="K188" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189" t="s">
+        <v>838</v>
+      </c>
+      <c r="B189" t="s">
+        <v>839</v>
+      </c>
+      <c r="C189" t="s">
+        <v>840</v>
+      </c>
+      <c r="D189" t="s">
+        <v>841</v>
+      </c>
+      <c r="E189" t="s">
+        <v>570</v>
+      </c>
+      <c r="F189" t="s">
+        <v>16</v>
+      </c>
+      <c r="G189" t="s">
+        <v>19</v>
+      </c>
+      <c r="H189" t="s">
+        <v>33</v>
+      </c>
+      <c r="I189" t="s">
+        <v>17</v>
+      </c>
+      <c r="J189" t="s">
+        <v>64</v>
+      </c>
+      <c r="K189" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190" t="s">
+        <v>842</v>
+      </c>
+      <c r="B190" t="s">
+        <v>843</v>
+      </c>
+      <c r="C190" t="s">
+        <v>487</v>
+      </c>
+      <c r="D190" t="s">
+        <v>844</v>
+      </c>
+      <c r="E190" t="s">
+        <v>601</v>
+      </c>
+      <c r="F190" t="s">
+        <v>25</v>
+      </c>
+      <c r="G190" t="s">
+        <v>25</v>
+      </c>
+      <c r="H190" t="s">
+        <v>26</v>
+      </c>
+      <c r="I190" t="s">
+        <v>18</v>
+      </c>
+      <c r="J190" t="s">
+        <v>64</v>
+      </c>
+      <c r="K190" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191" t="s">
+        <v>845</v>
+      </c>
+      <c r="B191" t="s">
+        <v>846</v>
+      </c>
+      <c r="C191" t="s">
+        <v>847</v>
+      </c>
+      <c r="D191" t="s">
+        <v>848</v>
+      </c>
+      <c r="E191" t="s">
+        <v>149</v>
+      </c>
+      <c r="F191" t="s">
+        <v>16</v>
+      </c>
+      <c r="G191" t="s">
+        <v>17</v>
+      </c>
+      <c r="H191" t="s">
+        <v>26</v>
+      </c>
+      <c r="I191" t="s">
+        <v>17</v>
+      </c>
+      <c r="J191" t="s">
+        <v>18</v>
+      </c>
+      <c r="K191" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192" t="s">
+        <v>849</v>
+      </c>
+      <c r="B192" t="s">
+        <v>850</v>
+      </c>
+      <c r="C192" t="s">
+        <v>851</v>
+      </c>
+      <c r="D192" t="s">
+        <v>852</v>
+      </c>
+      <c r="E192" t="s">
+        <v>381</v>
+      </c>
+      <c r="F192" t="s">
+        <v>32</v>
+      </c>
+      <c r="G192" t="s">
+        <v>25</v>
+      </c>
+      <c r="H192" t="s">
+        <v>26</v>
+      </c>
+      <c r="I192" t="s">
+        <v>19</v>
+      </c>
+      <c r="J192" t="s">
+        <v>64</v>
+      </c>
+      <c r="K192" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193" t="s">
+        <v>853</v>
+      </c>
+      <c r="B193" t="s">
+        <v>854</v>
+      </c>
+      <c r="C193" t="s">
+        <v>855</v>
+      </c>
+      <c r="D193" t="s">
+        <v>856</v>
+      </c>
+      <c r="E193" t="s">
+        <v>480</v>
+      </c>
+      <c r="F193" t="s">
+        <v>32</v>
+      </c>
+      <c r="G193" t="s">
+        <v>17</v>
+      </c>
+      <c r="H193" t="s">
+        <v>18</v>
+      </c>
+      <c r="I193" t="s">
+        <v>17</v>
+      </c>
+      <c r="J193" t="s">
+        <v>18</v>
+      </c>
+      <c r="K193" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194" t="s">
+        <v>857</v>
+      </c>
+      <c r="B194" t="s">
+        <v>858</v>
+      </c>
+      <c r="C194" t="s">
+        <v>859</v>
+      </c>
+      <c r="D194" t="s">
+        <v>860</v>
+      </c>
+      <c r="E194" t="s">
+        <v>285</v>
+      </c>
+      <c r="F194" t="s">
+        <v>25</v>
+      </c>
+      <c r="G194" t="s">
+        <v>17</v>
+      </c>
+      <c r="H194" t="s">
+        <v>26</v>
+      </c>
+      <c r="I194" t="s">
+        <v>17</v>
+      </c>
+      <c r="J194" t="s">
+        <v>18</v>
+      </c>
+      <c r="K194" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195" t="s">
+        <v>861</v>
+      </c>
+      <c r="B195" t="s">
+        <v>862</v>
+      </c>
+      <c r="C195" t="s">
+        <v>863</v>
+      </c>
+      <c r="D195" t="s">
+        <v>864</v>
+      </c>
+      <c r="E195" t="s">
+        <v>830</v>
+      </c>
+      <c r="F195" t="s">
+        <v>25</v>
+      </c>
+      <c r="G195" t="s">
+        <v>19</v>
+      </c>
+      <c r="H195" t="s">
+        <v>33</v>
+      </c>
+      <c r="I195" t="s">
+        <v>18</v>
+      </c>
+      <c r="J195" t="s">
+        <v>18</v>
+      </c>
+      <c r="K195" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196" t="s">
+        <v>865</v>
+      </c>
+      <c r="B196" t="s">
+        <v>866</v>
+      </c>
+      <c r="C196" t="s">
+        <v>867</v>
+      </c>
+      <c r="D196" t="s">
+        <v>868</v>
+      </c>
+      <c r="E196" t="s">
+        <v>24</v>
+      </c>
+      <c r="F196" t="s">
+        <v>32</v>
+      </c>
+      <c r="G196" t="s">
+        <v>19</v>
+      </c>
+      <c r="H196" t="s">
+        <v>26</v>
+      </c>
+      <c r="I196" t="s">
+        <v>18</v>
+      </c>
+      <c r="J196" t="s">
+        <v>18</v>
+      </c>
+      <c r="K196" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197" t="s">
+        <v>869</v>
+      </c>
+      <c r="B197" t="s">
+        <v>870</v>
+      </c>
+      <c r="C197" t="s">
+        <v>871</v>
+      </c>
+      <c r="D197" t="s">
+        <v>872</v>
+      </c>
+      <c r="E197" t="s">
+        <v>357</v>
+      </c>
+      <c r="F197" t="s">
+        <v>32</v>
+      </c>
+      <c r="G197" t="s">
+        <v>25</v>
+      </c>
+      <c r="H197" t="s">
+        <v>26</v>
+      </c>
+      <c r="I197" t="s">
+        <v>18</v>
+      </c>
+      <c r="J197" t="s">
+        <v>18</v>
+      </c>
+      <c r="K197" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198" t="s">
+        <v>873</v>
+      </c>
+      <c r="B198" t="s">
+        <v>874</v>
+      </c>
+      <c r="C198" t="s">
+        <v>875</v>
+      </c>
+      <c r="D198" t="s">
+        <v>876</v>
+      </c>
+      <c r="E198" t="s">
+        <v>270</v>
+      </c>
+      <c r="F198" t="s">
+        <v>25</v>
+      </c>
+      <c r="G198" t="s">
+        <v>19</v>
+      </c>
+      <c r="H198" t="s">
+        <v>18</v>
+      </c>
+      <c r="I198" t="s">
+        <v>17</v>
+      </c>
+      <c r="J198" t="s">
+        <v>18</v>
+      </c>
+      <c r="K198" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199" t="s">
+        <v>877</v>
+      </c>
+      <c r="B199" t="s">
+        <v>816</v>
+      </c>
+      <c r="C199" t="s">
+        <v>878</v>
+      </c>
+      <c r="D199" t="s">
+        <v>879</v>
+      </c>
+      <c r="E199" t="s">
+        <v>787</v>
+      </c>
+      <c r="F199" t="s">
+        <v>25</v>
+      </c>
+      <c r="G199" t="s">
+        <v>25</v>
+      </c>
+      <c r="H199" t="s">
+        <v>33</v>
+      </c>
+      <c r="I199" t="s">
+        <v>18</v>
+      </c>
+      <c r="J199" t="s">
+        <v>18</v>
+      </c>
+      <c r="K199" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200" t="s">
+        <v>880</v>
+      </c>
+      <c r="B200" t="s">
+        <v>881</v>
+      </c>
+      <c r="C200" t="s">
+        <v>882</v>
+      </c>
+      <c r="D200" t="s">
+        <v>883</v>
+      </c>
+      <c r="E200" t="s">
+        <v>884</v>
+      </c>
+      <c r="F200" t="s">
+        <v>32</v>
+      </c>
+      <c r="G200" t="s">
+        <v>17</v>
+      </c>
+      <c r="H200" t="s">
+        <v>18</v>
+      </c>
+      <c r="I200" t="s">
+        <v>17</v>
+      </c>
+      <c r="J200" t="s">
+        <v>64</v>
+      </c>
+      <c r="K200" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201" t="s">
+        <v>861</v>
+      </c>
+      <c r="B201" t="s">
+        <v>441</v>
+      </c>
+      <c r="C201" t="s">
+        <v>885</v>
+      </c>
+      <c r="D201" t="s">
+        <v>886</v>
+      </c>
+      <c r="E201" t="s">
+        <v>887</v>
+      </c>
+      <c r="F201" t="s">
+        <v>16</v>
+      </c>
+      <c r="G201" t="s">
+        <v>19</v>
+      </c>
+      <c r="H201" t="s">
+        <v>33</v>
+      </c>
+      <c r="I201" t="s">
+        <v>18</v>
+      </c>
+      <c r="J201" t="s">
+        <v>64</v>
+      </c>
+      <c r="K201" t="s">
+        <v>885</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="1048571" s="2" spans="1:11"/>

--- a/logs/Screening_Log.xlsx
+++ b/logs/Screening_Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="878">
   <si>
     <t xml:space="preserve">ScreeningDate</t>
   </si>
@@ -57,9 +57,6 @@
     <t xml:space="preserve">ResearchAssistantInitials</t>
   </si>
   <si>
-    <t xml:space="preserve">11/18/2012</t>
-  </si>
-  <si>
     <t xml:space="preserve">16:1</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t xml:space="preserve">N</t>
   </si>
   <si>
-    <t xml:space="preserve">7/23/2012</t>
-  </si>
-  <si>
     <t xml:space="preserve">20:6</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
     <t xml:space="preserve">does_not_meet_criteria</t>
   </si>
   <si>
-    <t xml:space="preserve">7/23/2013</t>
-  </si>
-  <si>
     <t xml:space="preserve">19:22</t>
   </si>
   <si>
@@ -126,9 +117,6 @@
     <t xml:space="preserve">unconsentable</t>
   </si>
   <si>
-    <t xml:space="preserve">3/16/2015</t>
-  </si>
-  <si>
     <t xml:space="preserve">18:52</t>
   </si>
   <si>
@@ -144,9 +132,6 @@
     <t xml:space="preserve">previously_enrolled</t>
   </si>
   <si>
-    <t xml:space="preserve">12/1/2012</t>
-  </si>
-  <si>
     <t xml:space="preserve">6:0</t>
   </si>
   <si>
@@ -159,9 +144,6 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">4/22/2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">6:5</t>
   </si>
   <si>
@@ -174,9 +156,6 @@
     <t xml:space="preserve">10</t>
   </si>
   <si>
-    <t xml:space="preserve">8/23/2013</t>
-  </si>
-  <si>
     <t xml:space="preserve">17:42</t>
   </si>
   <si>
@@ -186,9 +165,6 @@
     <t xml:space="preserve">17713545</t>
   </si>
   <si>
-    <t xml:space="preserve">4/24/2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">15:49</t>
   </si>
   <si>
@@ -201,9 +177,6 @@
     <t xml:space="preserve">65</t>
   </si>
   <si>
-    <t xml:space="preserve">11/5/2013</t>
-  </si>
-  <si>
     <t xml:space="preserve">6:17</t>
   </si>
   <si>
@@ -217,9 +190,6 @@
   </si>
   <si>
     <t xml:space="preserve">declined</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/15/2015</t>
   </si>
   <si>
     <t xml:space="preserve">23:3</t>
@@ -2692,8 +2662,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -2760,12 +2731,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2789,20 +2764,20 @@
   <dimension ref="A1:K201"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:D1 H1 J1:K1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="6.75"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2841,7003 +2816,7003 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="n">
+        <v>43040</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>43040</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>43041</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>43041</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>43041</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>43042</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>43042</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>43043</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>43043</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="I10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="1" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>43043</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K191" s="1" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K192" s="1" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K193" s="1" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K194" s="1" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K195" s="1" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="E196" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H196" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F196" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G196" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H196" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="I196" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K199" s="1" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K200" s="1" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K201" s="1" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
     </row>
   </sheetData>
@@ -9859,12 +9834,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:D1 H1 J1:K1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.10204081632653"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -9885,12 +9860,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:D1 H1 J1:K1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.10204081632653"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
